--- a/6_graphing/chart_graph/estimates.xlsx
+++ b/6_graphing/chart_graph/estimates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hitoshi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa6581a7e32c7e95/Documents/GitHub/Twitter-Sentiment-Analysis/6_graphing/chart_graph/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E31DD5B-B732-435A-8499-82CF43C9F1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{8E31DD5B-B732-435A-8499-82CF43C9F1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6399C416-F2EB-4395-A8D5-31D4B864810F}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="1960" windowWidth="25160" windowHeight="19640" xr2:uid="{F93AA549-1185-474A-BC2C-A54B414A874E}"/>
+    <workbookView xWindow="2115" yWindow="360" windowWidth="26250" windowHeight="15240" xr2:uid="{F93AA549-1185-474A-BC2C-A54B414A874E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,9 +112,6 @@
     <t>Weekdays/Weekends</t>
   </si>
   <si>
-    <t>Month within year</t>
-  </si>
-  <si>
     <t>Periods</t>
   </si>
   <si>
@@ -152,6 +149,9 @@
   <si>
     <t>Type</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Month Within Year</t>
   </si>
 </sst>
 </file>
@@ -159,21 +159,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="179" formatCode="#,##0_ "/>
-    <numFmt numFmtId="180" formatCode="0.0000_ "/>
+    <numFmt numFmtId="164" formatCode="#,##0_ "/>
+    <numFmt numFmtId="165" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -226,10 +226,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -237,7 +237,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -552,43 +552,43 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G14" sqref="G14:G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="7" width="18.9140625" customWidth="1"/>
-    <col min="8" max="8" width="18.25" customWidth="1"/>
+    <col min="1" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:8" ht="15.75">
       <c r="A2" s="5">
         <v>6.7208299999999999E-2</v>
       </c>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" ht="15.75">
       <c r="A3" s="5">
         <v>3.0011199999999998E-2</v>
       </c>
@@ -640,7 +640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" ht="15.75">
       <c r="A4" s="5">
         <v>6.0990999999999997E-2</v>
       </c>
@@ -666,7 +666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" ht="15.75">
       <c r="A5" s="5">
         <v>0.17606140000000001</v>
       </c>
@@ -692,7 +692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" ht="15.75">
       <c r="A6" s="5">
         <v>0.26625870000000001</v>
       </c>
@@ -718,7 +718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" ht="15.75">
       <c r="A7" s="5">
         <v>0.1683288</v>
       </c>
@@ -744,7 +744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" ht="15.75">
       <c r="A8" s="5">
         <v>9.7989499999999993E-2</v>
       </c>
@@ -770,7 +770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" ht="15.75">
       <c r="A9" s="5">
         <v>4.7790199999999998E-2</v>
       </c>
@@ -796,7 +796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" ht="15.75">
       <c r="A10" s="5">
         <v>1.01531E-2</v>
       </c>
@@ -822,7 +822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" ht="15.75">
       <c r="A11" s="5">
         <v>8.0253000000000008E-3</v>
       </c>
@@ -848,7 +848,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" ht="15.75">
       <c r="A12" s="5">
         <v>0.18265690000000001</v>
       </c>
@@ -874,7 +874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" ht="15.75">
       <c r="A13" s="5">
         <v>0.30521009999999998</v>
       </c>
@@ -900,7 +900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" ht="15.75">
       <c r="A14" s="5">
         <v>0.2021956</v>
       </c>
@@ -920,13 +920,13 @@
         <v>5</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" ht="15.75">
       <c r="A15" s="5">
         <v>0.25783719999999999</v>
       </c>
@@ -946,13 +946,13 @@
         <v>5</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" ht="15.75">
       <c r="A16" s="5">
         <v>0.1108439</v>
       </c>
@@ -972,13 +972,13 @@
         <v>5</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" ht="15.75">
       <c r="A17" s="5">
         <v>0.26760519999999999</v>
       </c>
@@ -998,13 +998,13 @@
         <v>5</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" ht="15.75">
       <c r="A18" s="5">
         <v>0.29204970000000002</v>
       </c>
@@ -1024,13 +1024,13 @@
         <v>6</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="19" spans="1:8" ht="15.75">
       <c r="A19" s="5">
         <v>0.21887090000000001</v>
       </c>
@@ -1050,13 +1050,13 @@
         <v>6</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" ht="15.75">
       <c r="A20" s="5">
         <v>0.26926499999999998</v>
       </c>
@@ -1076,13 +1076,13 @@
         <v>6</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" ht="15.75">
       <c r="A21" s="5">
         <v>0.1774618</v>
       </c>
@@ -1102,13 +1102,13 @@
         <v>6</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1118,7 +1118,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1128,7 +1128,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1138,7 +1138,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1148,7 +1148,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
